--- a/Correlacao_de_fundos/Bases/Paiva.xlsx
+++ b/Correlacao_de_fundos/Bases/Paiva.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\cienciadedados\Correlacao_de_fundos\Bases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ciencia_de_dados\Correlacao_de_fundos\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC47F149-C460-4DCC-9443-21F35AFA9E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA75F422-763A-4463-88FC-73C9430477A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>PAIVAFI BZ Equity</t>
   </si>
@@ -98,10 +98,13 @@
     <t>Annualized  Return</t>
   </si>
   <si>
-    <t>y=alpha*x=+beta+tracking error</t>
+    <t>tracking error</t>
   </si>
   <si>
-    <t>tracking error</t>
+    <t>y=alpha*x+beta+tracking error</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -109,8 +112,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -603,17 +606,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -999,13 +1005,13 @@
   <dimension ref="A1:J1759"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1037,7 +1043,9 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="6">
         <f>+$B$2*C9+C10</f>
         <v>7.1635227717128675E-4</v>
@@ -1095,7 +1103,7 @@
         <v>0.78889925857635834</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1111,7 +1119,7 @@
         <v>0.76125173377160915</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -44774,8 +44782,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006522679F146DFF498D699F828D56000C" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="59b1383659f2165d583401089bbb2cdd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2906f1-4e2b-432c-9c12-773b8d680c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d76bf99ca48259c387bedcb1bc0ef443" ns2:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006522679F146DFF498D699F828D56000C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aafef3a4b21104a4f88b1575ea132e6d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2906f1-4e2b-432c-9c12-773b8d680c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a3c71ec86999a8ee9371076eaf4925b" ns2:_="">
     <xsd:import namespace="ee2906f1-4e2b-432c-9c12-773b8d680c96"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -44861,8 +44884,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -44951,29 +44974,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872F226F-6CC2-4801-A1A4-0711CCD627AC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF4CB2F-DB35-431B-9CA3-707FF6AB2C79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F00187C2-BC6A-46DC-B6A9-E8E3846CA554}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F00187C2-BC6A-46DC-B6A9-E8E3846CA554}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF4CB2F-DB35-431B-9CA3-707FF6AB2C79}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22F875EF-1E1B-4967-B7DC-4E080D3B55F5}"/>
 </file>